--- a/Final Project/Case Study Data/case2.xlsx
+++ b/Final Project/Case Study Data/case2.xlsx
@@ -42,7 +42,7 @@
     <t>eps0xy</t>
   </si>
   <si>
-    <t>Local Stress</t>
+    <t>Global Stress</t>
   </si>
   <si>
     <t>sigma1</t>
@@ -54,7 +54,7 @@
     <t>sigma12</t>
   </si>
   <si>
-    <t>Local Strain</t>
+    <t>Global Strain</t>
   </si>
   <si>
     <t>epsilon1</t>
@@ -134,15 +134,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="true"/>
-    <col min="2" max="2" width="16.28515625" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
-    <col min="4" max="4" width="16.28515625" customWidth="true"/>
-    <col min="5" max="5" width="16.28515625" customWidth="true"/>
-    <col min="6" max="6" width="16.28515625" customWidth="true"/>
-    <col min="7" max="7" width="16.28515625" customWidth="true"/>
-    <col min="8" max="8" width="15.5703125" customWidth="true"/>
-    <col min="9" max="9" width="13.7109375" customWidth="true"/>
-    <col min="10" max="10" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="3" max="3" width="15.42578125" customWidth="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="true"/>
+    <col min="5" max="5" width="15.5703125" customWidth="true"/>
+    <col min="6" max="6" width="15.42578125" customWidth="true"/>
+    <col min="7" max="7" width="15.42578125" customWidth="true"/>
+    <col min="8" max="8" width="15.42578125" customWidth="true"/>
+    <col min="9" max="9" width="15.42578125" customWidth="true"/>
+    <col min="10" max="10" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -258,31 +258,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.00078740199999999998</v>
+        <v>-0.02</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.00059055149999999999</v>
+        <v>-0.014999999999999999</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.00039370099999999999</v>
+        <v>-0.01</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0001968505</v>
+        <v>-0.0050000000000000001</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0.0001968505</v>
+        <v>0.0050000000000000001</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00039370099999999999</v>
+        <v>0.01</v>
       </c>
       <c r="I6" s="0">
-        <v>0.00059055149999999999</v>
+        <v>0.014999999999999999</v>
       </c>
       <c r="J6" s="0">
-        <v>0.00078740199999999998</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -316,14 +316,14 @@
         <v>6</v>
       </c>
       <c r="B9" s="0">
-        <v>0.15239686526351556</v>
+        <v>0.0059998798251111344</v>
       </c>
       <c r="C9" s="0"/>
       <c r="D9" s="0" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="0">
-        <v>1.451853978131131e-14</v>
+        <v>1.8738207208941892e-34</v>
       </c>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
@@ -336,14 +336,14 @@
         <v>7</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.044250574821430619</v>
+        <v>-0.0017421495557772061</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="0">
-        <v>-9.056871452492259e-15</v>
+        <v>1.0395536235920803e-34</v>
       </c>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -356,14 +356,14 @@
         <v>8</v>
       </c>
       <c r="B11" s="0">
-        <v>-3.4897687685452326e-35</v>
+        <v>-5.0045035202502039e-19</v>
       </c>
       <c r="C11" s="0"/>
       <c r="D11" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="0">
-        <v>-1.5321110393411211e-15</v>
+        <v>-1.2247495897037726e-33</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
@@ -402,31 +402,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="0">
-        <v>1111998.6541027569</v>
+        <v>31704.52938088834</v>
       </c>
       <c r="C14" s="0">
-        <v>1111998.6541027569</v>
+        <v>31704.529380888347</v>
       </c>
       <c r="D14" s="0">
-        <v>-823915.70836952375</v>
+        <v>8294.3009843624841</v>
       </c>
       <c r="E14" s="0">
-        <v>3047913.0165750361</v>
+        <v>119996.64025386084</v>
       </c>
       <c r="F14" s="0">
-        <v>3047913.0165750361</v>
+        <v>119996.64025386084</v>
       </c>
       <c r="G14" s="0">
-        <v>3047913.0165750361</v>
+        <v>119996.64025386084</v>
       </c>
       <c r="H14" s="0">
-        <v>-823915.70836952399</v>
+        <v>8294.3009843624841</v>
       </c>
       <c r="I14" s="0">
-        <v>1111998.6541027569</v>
+        <v>31704.529380888347</v>
       </c>
       <c r="J14" s="0">
-        <v>1111998.6541027569</v>
+        <v>31704.52938088834</v>
       </c>
     </row>
     <row r="15">
@@ -434,31 +434,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="0">
-        <v>105295.68855829863</v>
+        <v>16220.470619111657</v>
       </c>
       <c r="C15" s="0">
-        <v>105295.68855829863</v>
+        <v>16220.47061911166</v>
       </c>
       <c r="D15" s="0">
-        <v>210675.13123823621</v>
+        <v>-32437.643830079007</v>
       </c>
       <c r="E15" s="0">
-        <v>-83.754121638905801</v>
+        <v>-3.2974081443362593</v>
       </c>
       <c r="F15" s="0">
-        <v>-83.754121638907236</v>
+        <v>-3.2974081443362593</v>
       </c>
       <c r="G15" s="0">
-        <v>-83.754121638908671</v>
+        <v>-3.2974081443362593</v>
       </c>
       <c r="H15" s="0">
-        <v>210675.13123823621</v>
+        <v>-32437.643830079007</v>
       </c>
       <c r="I15" s="0">
-        <v>105295.68855829863</v>
+        <v>16220.47061911166</v>
       </c>
       <c r="J15" s="0">
-        <v>105295.68855829863</v>
+        <v>16220.470619111657</v>
       </c>
     </row>
     <row r="16">
@@ -466,31 +466,31 @@
         <v>12</v>
       </c>
       <c r="B16" s="0">
-        <v>-196647.44008494625</v>
+        <v>19816.998211890928</v>
       </c>
       <c r="C16" s="0">
-        <v>196647.44008494625</v>
+        <v>-19816.998211890936</v>
       </c>
       <c r="D16" s="0">
-        <v>-6.0319364829963863e-13</v>
+        <v>-5.0045035202502039e-13</v>
       </c>
       <c r="E16" s="0">
-        <v>3.0159682414981927e-13</v>
+        <v>-5.0045035202502039e-13</v>
       </c>
       <c r="F16" s="0">
-        <v>-3.4897687685452328e-29</v>
+        <v>-5.0045035202502039e-13</v>
       </c>
       <c r="G16" s="0">
-        <v>-3.0159682414981937e-13</v>
+        <v>-5.0045035202502039e-13</v>
       </c>
       <c r="H16" s="0">
-        <v>6.0319364829963863e-13</v>
+        <v>-5.0045035202502039e-13</v>
       </c>
       <c r="I16" s="0">
-        <v>196647.44008494625</v>
+        <v>-19816.998211890936</v>
       </c>
       <c r="J16" s="0">
-        <v>-196647.44008494625</v>
+        <v>19816.998211890928</v>
       </c>
     </row>
     <row r="17">
@@ -524,31 +524,31 @@
         <v>14</v>
       </c>
       <c r="B19" s="0">
-        <v>0.054073145221042562</v>
+        <v>0.0059998798251111379</v>
       </c>
       <c r="C19" s="0">
-        <v>0.054073145221042562</v>
+        <v>0.005999879825111137</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.044250574821430605</v>
+        <v>0.0059998798251111353</v>
       </c>
       <c r="E19" s="0">
-        <v>0.15239686526351556</v>
+        <v>0.0059998798251111353</v>
       </c>
       <c r="F19" s="0">
-        <v>0.15239686526351556</v>
+        <v>0.0059998798251111353</v>
       </c>
       <c r="G19" s="0">
-        <v>0.15239686526351556</v>
+        <v>0.0059998798251111353</v>
       </c>
       <c r="H19" s="0">
-        <v>-0.044250574821430619</v>
+        <v>0.0059998798251111353</v>
       </c>
       <c r="I19" s="0">
-        <v>0.054073145221042562</v>
+        <v>0.005999879825111137</v>
       </c>
       <c r="J19" s="0">
-        <v>0.054073145221042562</v>
+        <v>0.0059998798251111379</v>
       </c>
     </row>
     <row r="20">
@@ -556,31 +556,31 @@
         <v>15</v>
       </c>
       <c r="B20" s="0">
-        <v>0.054073145221042451</v>
+        <v>-0.0017421495557772074</v>
       </c>
       <c r="C20" s="0">
-        <v>0.054073145221042451</v>
+        <v>-0.0017421495557772091</v>
       </c>
       <c r="D20" s="0">
-        <v>0.15239686526351559</v>
+        <v>-0.0017421495557772063</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.044250574821430626</v>
+        <v>-0.0017421495557772063</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.044250574821430626</v>
+        <v>-0.0017421495557772063</v>
       </c>
       <c r="G20" s="0">
-        <v>-0.044250574821430633</v>
+        <v>-0.0017421495557772063</v>
       </c>
       <c r="H20" s="0">
-        <v>0.15239686526351559</v>
+        <v>-0.0017421495557772063</v>
       </c>
       <c r="I20" s="0">
-        <v>0.054073145221042451</v>
+        <v>-0.0017421495557772091</v>
       </c>
       <c r="J20" s="0">
-        <v>0.054073145221042451</v>
+        <v>-0.0017421495557772074</v>
       </c>
     </row>
     <row r="21">
@@ -588,31 +588,31 @@
         <v>16</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.19664744008494633</v>
+        <v>1.7347234759768071e-18</v>
       </c>
       <c r="C21" s="0">
-        <v>0.19664744008494633</v>
+        <v>-1.7347234759768071e-18</v>
       </c>
       <c r="D21" s="0">
-        <v>-6.0319364829963857e-19</v>
+        <v>-5.0045035202502039e-19</v>
       </c>
       <c r="E21" s="0">
-        <v>3.0159682414981924e-19</v>
+        <v>-5.0045035202502039e-19</v>
       </c>
       <c r="F21" s="0">
-        <v>-3.4897687685452326e-35</v>
+        <v>-5.0045035202502039e-19</v>
       </c>
       <c r="G21" s="0">
-        <v>-3.0159682414981933e-19</v>
+        <v>-5.0045035202502039e-19</v>
       </c>
       <c r="H21" s="0">
-        <v>6.0319364829963857e-19</v>
+        <v>-5.0045035202502039e-19</v>
       </c>
       <c r="I21" s="0">
-        <v>0.19664744008494633</v>
+        <v>-1.7347234759768071e-18</v>
       </c>
       <c r="J21" s="0">
-        <v>-0.19664744008494633</v>
+        <v>1.7347234759768071e-18</v>
       </c>
     </row>
   </sheetData>
